--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
   <si>
     <t>№</t>
   </si>
@@ -31,9 +31,42 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
+    <t>Карпович Александр</t>
+  </si>
+  <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
+    <t>Пяткова Валерия</t>
+  </si>
+  <si>
+    <t>Провалинский Владимир</t>
+  </si>
+  <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
+    <t>Казаков Максим</t>
+  </si>
+  <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
+    <t>Виктор Морозов</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -43,12 +76,45 @@
     <t>262625</t>
   </si>
   <si>
-    <t>382588</t>
+    <t>321426</t>
+  </si>
+  <si>
+    <t>328905</t>
+  </si>
+  <si>
+    <t>321423</t>
+  </si>
+  <si>
+    <t>369588</t>
+  </si>
+  <si>
+    <t>415632</t>
   </si>
   <si>
     <t>415486</t>
   </si>
   <si>
+    <t>352865</t>
+  </si>
+  <si>
+    <t>417223</t>
+  </si>
+  <si>
+    <t>371742</t>
+  </si>
+  <si>
+    <t>415633</t>
+  </si>
+  <si>
+    <t>321540</t>
+  </si>
+  <si>
+    <t>416762</t>
+  </si>
+  <si>
+    <t>417133</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -61,12 +127,18 @@
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
     <t>1+</t>
   </si>
   <si>
     <t>1+, 2-</t>
   </si>
   <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -76,24 +148,39 @@
     <t>1+, 3-</t>
   </si>
   <si>
+    <t>1+, 16-</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
     <t>514</t>
   </si>
   <si>
+    <t>4-</t>
+  </si>
+  <si>
     <t>606</t>
   </si>
   <si>
@@ -106,13 +193,22 @@
     <t>798</t>
   </si>
   <si>
+    <t>7-</t>
+  </si>
+  <si>
     <t>850</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>903</t>
   </si>
   <si>
     <t>940</t>
+  </si>
+  <si>
+    <t>2-</t>
   </si>
   <si>
     <t>949</t>
@@ -147,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,13 +275,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -483,10 +586,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,27 +605,93 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -531,15 +700,48 @@
         <v>5</v>
       </c>
       <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -553,215 +755,505 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E19"/>
+  <autoFilter ref="A1:P19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId7"/>
+    <hyperlink ref="I2" r:id="rId8"/>
+    <hyperlink ref="J2" r:id="rId9"/>
+    <hyperlink ref="K2" r:id="rId10"/>
+    <hyperlink ref="L2" r:id="rId11"/>
+    <hyperlink ref="M2" r:id="rId12"/>
+    <hyperlink ref="N2" r:id="rId13"/>
+    <hyperlink ref="O2" r:id="rId14"/>
+    <hyperlink ref="P2" r:id="rId15"/>
+    <hyperlink ref="A5" r:id="rId16"/>
+    <hyperlink ref="A6" r:id="rId17"/>
+    <hyperlink ref="A7" r:id="rId18"/>
+    <hyperlink ref="A8" r:id="rId19"/>
+    <hyperlink ref="A9" r:id="rId20"/>
+    <hyperlink ref="A10" r:id="rId21"/>
+    <hyperlink ref="A11" r:id="rId22"/>
+    <hyperlink ref="A12" r:id="rId23"/>
+    <hyperlink ref="A13" r:id="rId24"/>
+    <hyperlink ref="A14" r:id="rId25"/>
+    <hyperlink ref="A15" r:id="rId26"/>
+    <hyperlink ref="A16" r:id="rId27"/>
+    <hyperlink ref="A17" r:id="rId28"/>
+    <hyperlink ref="A18" r:id="rId29"/>
+    <hyperlink ref="A19" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$P$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$Q$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
   <si>
     <t>№</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Леонтьев Дмитрий</t>
   </si>
   <si>
+    <t>Медведев Александр</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>328905</t>
   </si>
   <si>
+    <t>369107</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
@@ -166,24 +172,27 @@
     <t>147</t>
   </si>
   <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
     <t>6-</t>
   </si>
   <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
     <t>678</t>
   </si>
   <si>
@@ -193,7 +202,7 @@
     <t>798</t>
   </si>
   <si>
-    <t>7-</t>
+    <t>14-</t>
   </si>
   <si>
     <t>850</t>
@@ -577,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -586,10 +595,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,60 +647,66 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -703,45 +718,48 @@
         <v>11</v>
       </c>
       <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -753,476 +771,548 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="L10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="K11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>39</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P19"/>
+  <autoFilter ref="A1:Q19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1239,21 +1329,22 @@
     <hyperlink ref="N2" r:id="rId13"/>
     <hyperlink ref="O2" r:id="rId14"/>
     <hyperlink ref="P2" r:id="rId15"/>
-    <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A6" r:id="rId17"/>
-    <hyperlink ref="A7" r:id="rId18"/>
-    <hyperlink ref="A8" r:id="rId19"/>
-    <hyperlink ref="A9" r:id="rId20"/>
-    <hyperlink ref="A10" r:id="rId21"/>
-    <hyperlink ref="A11" r:id="rId22"/>
-    <hyperlink ref="A12" r:id="rId23"/>
-    <hyperlink ref="A13" r:id="rId24"/>
-    <hyperlink ref="A14" r:id="rId25"/>
-    <hyperlink ref="A15" r:id="rId26"/>
-    <hyperlink ref="A16" r:id="rId27"/>
-    <hyperlink ref="A17" r:id="rId28"/>
-    <hyperlink ref="A18" r:id="rId29"/>
-    <hyperlink ref="A19" r:id="rId30"/>
+    <hyperlink ref="Q2" r:id="rId16"/>
+    <hyperlink ref="A5" r:id="rId17"/>
+    <hyperlink ref="A6" r:id="rId18"/>
+    <hyperlink ref="A7" r:id="rId19"/>
+    <hyperlink ref="A8" r:id="rId20"/>
+    <hyperlink ref="A9" r:id="rId21"/>
+    <hyperlink ref="A10" r:id="rId22"/>
+    <hyperlink ref="A11" r:id="rId23"/>
+    <hyperlink ref="A12" r:id="rId24"/>
+    <hyperlink ref="A13" r:id="rId25"/>
+    <hyperlink ref="A14" r:id="rId26"/>
+    <hyperlink ref="A15" r:id="rId27"/>
+    <hyperlink ref="A16" r:id="rId28"/>
+    <hyperlink ref="A17" r:id="rId29"/>
+    <hyperlink ref="A18" r:id="rId30"/>
+    <hyperlink ref="A19" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$Q$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Виктор Морозов</t>
   </si>
   <si>
+    <t>Глушков Артём</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>417133</t>
+  </si>
+  <si>
+    <t>418688</t>
   </si>
   <si>
     <t>+</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -595,10 +601,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="17" width="10.7109375" customWidth="1"/>
+    <col min="1" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,63 +656,69 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -756,10 +768,13 @@
       <c r="Q3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -809,510 +824,513 @@
       <c r="Q4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
+      <c r="K11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="J12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="3" t="s">
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J16" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q19"/>
+  <autoFilter ref="A1:R19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1330,21 +1348,22 @@
     <hyperlink ref="O2" r:id="rId14"/>
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
-    <hyperlink ref="A5" r:id="rId17"/>
-    <hyperlink ref="A6" r:id="rId18"/>
-    <hyperlink ref="A7" r:id="rId19"/>
-    <hyperlink ref="A8" r:id="rId20"/>
-    <hyperlink ref="A9" r:id="rId21"/>
-    <hyperlink ref="A10" r:id="rId22"/>
-    <hyperlink ref="A11" r:id="rId23"/>
-    <hyperlink ref="A12" r:id="rId24"/>
-    <hyperlink ref="A13" r:id="rId25"/>
-    <hyperlink ref="A14" r:id="rId26"/>
-    <hyperlink ref="A15" r:id="rId27"/>
-    <hyperlink ref="A16" r:id="rId28"/>
-    <hyperlink ref="A17" r:id="rId29"/>
-    <hyperlink ref="A18" r:id="rId30"/>
-    <hyperlink ref="A19" r:id="rId31"/>
+    <hyperlink ref="R2" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="A19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -31,12 +31,12 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Медведев Александр</t>
+  </si>
+  <si>
     <t>Леонтьев Дмитрий</t>
   </si>
   <si>
-    <t>Медведев Александр</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t>321426</t>
   </si>
   <si>
+    <t>369107</t>
+  </si>
+  <si>
     <t>328905</t>
-  </si>
-  <si>
-    <t>369107</t>
   </si>
   <si>
     <t>321423</t>
@@ -730,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>13</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>45</v>
@@ -1030,10 +1030,10 @@
         <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>53</v>
@@ -1058,7 +1058,7 @@
       <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1111,10 +1111,10 @@
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>46</v>
@@ -1146,10 +1146,10 @@
         <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>41</v>
@@ -1194,7 +1194,7 @@
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -1218,10 +1218,10 @@
         <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>42</v>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -55,6 +55,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>417223</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>321540</t>
-  </si>
-  <si>
-    <t>416762</t>
   </si>
   <si>
     <t>417133</t>
@@ -757,13 +757,13 @@
         <v>6</v>
       </c>
       <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -810,16 +810,16 @@
         <v>2</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -866,13 +866,13 @@
         <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>42</v>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>41</v>
@@ -913,13 +913,13 @@
         <v>46</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>41</v>
@@ -960,13 +960,13 @@
         <v>48</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>41</v>
+      <c r="O7" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>41</v>
@@ -1012,7 +1012,7 @@
       <c r="N8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -1042,13 +1042,13 @@
         <v>45</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1131,11 +1131,11 @@
       <c r="K12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1180,10 +1180,10 @@
       <c r="I14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       <c r="J15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1270,10 +1270,10 @@
       <c r="L17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="M17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q17" s="3" t="s">

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -31,21 +31,24 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Провалинский Владимир</t>
+  </si>
+  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Провалинский Владимир</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -85,21 +85,24 @@
     <t>321426</t>
   </si>
   <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
-    <t>328905</t>
+    <t>369588</t>
   </si>
   <si>
     <t>321423</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415632</t>
   </si>
   <si>
+    <t>371742</t>
+  </si>
+  <si>
     <t>415486</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>416762</t>
-  </si>
-  <si>
-    <t>371742</t>
   </si>
   <si>
     <t>415633</t>
@@ -730,31 +730,31 @@
         <v>11</v>
       </c>
       <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
       <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>7</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
       </c>
       <c r="I3">
         <v>11</v>
       </c>
       <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
       </c>
       <c r="N3">
         <v>6</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -804,16 +804,16 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -857,19 +857,19 @@
         <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>41</v>
@@ -892,31 +892,31 @@
         <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>49</v>
@@ -945,25 +945,25 @@
         <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>45</v>
@@ -992,10 +992,10 @@
         <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>45</v>
@@ -1006,7 +1006,7 @@
       <c r="K8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -1030,22 +1030,22 @@
         <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>45</v>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>43</v>
@@ -1058,13 +1058,16 @@
       <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1084,16 +1087,19 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -1111,27 +1117,30 @@
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -1146,13 +1155,16 @@
         <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1172,16 +1184,16 @@
         <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>41</v>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>48</v>
@@ -1194,13 +1206,16 @@
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O15" s="4" t="s">
@@ -1218,18 +1233,21 @@
         <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1253,24 +1271,27 @@
         <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -1296,7 +1317,7 @@
       <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -1308,7 +1329,10 @@
       <c r="K18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1325,8 +1349,11 @@
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -31,15 +31,21 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Леонтьв Дмитрий</t>
   </si>
   <si>
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Казаков Максим</t>
+  </si>
+  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +64,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Казаков Максим</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,9 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321540</t>
+  </si>
+  <si>
     <t>369588</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,15 +118,9 @@
     <t>417223</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
-    <t>321540</t>
-  </si>
-  <si>
     <t>417133</t>
   </si>
   <si>
@@ -175,15 +175,15 @@
     <t>108</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
     <t>8-</t>
   </si>
   <si>
-    <t>2+</t>
-  </si>
-  <si>
     <t>322</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>5-</t>
   </si>
   <si>
+    <t>3+, 1-</t>
+  </si>
+  <si>
     <t>606</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>903</t>
+  </si>
+  <si>
+    <t>3+</t>
   </si>
   <si>
     <t>940</t>
@@ -736,34 +742,34 @@
         <v>14</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>11</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>14</v>
       </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
+      <c r="P3">
         <v>7</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -792,34 +798,34 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -847,31 +853,31 @@
       <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q5" s="3" t="s">
@@ -897,28 +903,28 @@
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -944,28 +950,28 @@
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -991,28 +997,28 @@
       <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -1021,7 +1027,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>42</v>
@@ -1035,19 +1041,19 @@
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1061,13 +1067,13 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1087,19 +1093,19 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -1108,7 +1114,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>41</v>
@@ -1122,34 +1128,34 @@
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -1160,16 +1166,16 @@
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>46</v>
@@ -1183,48 +1189,51 @@
       <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="K14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -1238,22 +1247,22 @@
       <c r="F16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>65</v>
+      <c r="L16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
@@ -1270,31 +1279,31 @@
       <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q17" s="3" t="s">
@@ -1303,7 +1312,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -1317,13 +1326,7 @@
       <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1332,13 +1335,19 @@
       <c r="L18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>68</v>
+      <c r="M18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -1349,11 +1358,14 @@
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>68</v>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -37,15 +37,15 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
     <t>369588</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,13 +112,13 @@
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>352865</t>
   </si>
   <si>
     <t>417223</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>417133</t>
@@ -742,13 +742,13 @@
         <v>14</v>
       </c>
       <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -763,13 +763,13 @@
         <v>11</v>
       </c>
       <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>0</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -853,11 +853,11 @@
       <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>41</v>
@@ -874,11 +874,11 @@
       <c r="N5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>41</v>
@@ -903,11 +903,11 @@
       <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>45</v>
@@ -922,10 +922,10 @@
         <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>41</v>
@@ -950,11 +950,11 @@
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>41</v>
@@ -969,10 +969,10 @@
         <v>40</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>41</v>
@@ -997,11 +997,11 @@
       <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>41</v>
@@ -1016,9 +1016,9 @@
         <v>52</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -1041,20 +1041,20 @@
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>43</v>
+      <c r="N9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1067,13 +1067,13 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1106,6 +1106,9 @@
         <v>58</v>
       </c>
       <c r="N11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -1128,11 +1131,11 @@
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>46</v>
@@ -1147,10 +1150,10 @@
         <v>39</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1166,7 +1169,7 @@
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1189,7 +1192,7 @@
       <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1204,7 +1207,7 @@
       <c r="M14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1227,7 +1230,7 @@
       <c r="M15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1247,7 +1250,7 @@
       <c r="F16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -1279,11 +1282,11 @@
       <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>45</v>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>41</v>
@@ -1326,7 +1329,7 @@
       <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1341,7 +1344,10 @@
       <c r="N18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1358,7 +1364,7 @@
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="4" t="s">

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -52,15 +52,15 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -106,15 +106,15 @@
     <t>415632</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
     <t>415486</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>352865</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>1+, 16-</t>
   </si>
   <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
     <t>1+, 4-</t>
   </si>
   <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>514</t>
   </si>
   <si>
-    <t>5-</t>
+    <t>1+, 7-</t>
   </si>
   <si>
     <t>3+, 1-</t>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -757,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
         <v>14</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>11</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -869,10 +869,10 @@
         <v>41</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>41</v>
@@ -919,10 +919,10 @@
         <v>48</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>46</v>
@@ -939,7 +939,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>41</v>
@@ -960,19 +960,19 @@
         <v>41</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>41</v>
@@ -1010,13 +1010,13 @@
         <v>45</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>41</v>
@@ -1036,7 +1036,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>41</v>
@@ -1048,10 +1048,10 @@
         <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>45</v>
@@ -1070,7 +1070,7 @@
       <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -1093,7 +1093,7 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1103,10 +1103,10 @@
         <v>41</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>41</v>
@@ -1147,10 +1147,10 @@
         <v>41</v>
       </c>
       <c r="M12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>45</v>
@@ -1172,7 +1172,7 @@
       <c r="I13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1196,19 +1196,19 @@
         <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N14" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1224,14 +1224,14 @@
       <c r="K15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>41</v>
+      <c r="L15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1248,7 +1248,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>42</v>
@@ -1256,10 +1256,10 @@
       <c r="K16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1295,13 +1295,13 @@
         <v>41</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>41</v>
@@ -1339,10 +1339,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>41</v>
@@ -1367,10 +1367,10 @@
       <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -40,27 +40,27 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -94,27 +94,27 @@
     <t>416762</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
     <t>415632</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>415633</t>
   </si>
   <si>
     <t>371742</t>
   </si>
   <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>352865</t>
   </si>
   <si>
@@ -217,16 +217,16 @@
     <t>850</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>903</t>
   </si>
   <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
     <t>3+</t>
-  </si>
-  <si>
-    <t>940</t>
   </si>
   <si>
     <t>2-</t>
@@ -745,10 +745,10 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -757,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>14</v>
-      </c>
-      <c r="N3">
-        <v>11</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -856,7 +856,7 @@
       <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -866,13 +866,13 @@
         <v>41</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>41</v>
@@ -906,7 +906,7 @@
       <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -916,13 +916,13 @@
         <v>46</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>46</v>
@@ -953,7 +953,7 @@
       <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -963,13 +963,13 @@
         <v>49</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>49</v>
@@ -1000,7 +1000,7 @@
       <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -1010,13 +1010,13 @@
         <v>45</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>41</v>
@@ -1044,13 +1044,13 @@
       <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="M9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -1067,10 +1067,10 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -1093,20 +1093,20 @@
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>41</v>
@@ -1134,7 +1134,7 @@
       <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1144,13 +1144,13 @@
         <v>42</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>45</v>
@@ -1169,10 +1169,10 @@
       <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1202,13 +1202,13 @@
         <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1224,14 +1224,14 @@
       <c r="K15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1250,58 +1250,61 @@
       <c r="F16" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>66</v>
+      <c r="L16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="M17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>41</v>
@@ -1315,34 +1318,34 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>41</v>
@@ -1364,14 +1367,14 @@
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -28,33 +28,33 @@
     <t>Вахитова Екатерина</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -82,33 +82,33 @@
     <t>262625</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
     <t>416762</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321540</t>
   </si>
   <si>
     <t>321423</t>
   </si>
   <si>
-    <t>415632</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
     <t>2+, 2-</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>1+</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t>108</t>
-  </si>
-  <si>
-    <t>2+</t>
   </si>
   <si>
     <t>147</t>
@@ -733,31 +733,31 @@
         <v>5</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>7</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
       </c>
       <c r="M3">
         <v>10</v>
@@ -789,25 +789,25 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -848,181 +848,178 @@
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1030,31 +1027,31 @@
         <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1062,19 +1059,19 @@
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1082,37 +1079,37 @@
         <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1120,40 +1117,40 @@
         <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>42</v>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1161,19 +1158,19 @@
         <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1181,34 +1178,34 @@
         <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1216,22 +1213,19 @@
         <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>45</v>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1239,31 +1233,28 @@
         <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1271,49 +1262,49 @@
         <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1321,34 +1312,34 @@
         <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>70</v>
@@ -1359,19 +1350,19 @@
         <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>70</v>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>147</t>
+  </si>
+  <si>
+    <t>5-</t>
   </si>
   <si>
     <t>8-</t>
@@ -733,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1029,6 +1032,9 @@
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>42</v>
@@ -1056,7 +1062,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
@@ -1076,7 +1082,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -1091,10 +1097,10 @@
         <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>42</v>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>42</v>
@@ -1129,7 +1135,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>39</v>
@@ -1155,9 +1161,12 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1175,13 +1184,13 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>44</v>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>46</v>
@@ -1210,19 +1219,19 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>42</v>
@@ -1230,11 +1239,14 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1259,7 +1271,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>42</v>
@@ -1280,7 +1292,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>42</v>
@@ -1309,7 +1321,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -1327,7 +1339,7 @@
         <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>42</v>
@@ -1342,12 +1354,12 @@
         <v>42</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -1365,7 +1377,7 @@
         <v>42</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>416762</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>371742</t>
   </si>
   <si>
-    <t>352865</t>
-  </si>
-  <si>
     <t>417223</t>
   </si>
   <si>
@@ -181,7 +181,7 @@
     <t>147</t>
   </si>
   <si>
-    <t>5-</t>
+    <t>7-</t>
   </si>
   <si>
     <t>8-</t>
@@ -202,16 +202,16 @@
     <t>606</t>
   </si>
   <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
     <t>6-</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>798</t>
   </si>
   <si>
     <t>14-</t>
@@ -745,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -754,22 +754,22 @@
         <v>14</v>
       </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14</v>
-      </c>
-      <c r="O3">
-        <v>8</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -810,22 +810,22 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -865,11 +865,8 @@
       <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>42</v>
@@ -912,20 +909,17 @@
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>46</v>
+      <c r="K6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>42</v>
@@ -959,20 +953,17 @@
       <c r="I7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>42</v>
@@ -1006,17 +997,14 @@
       <c r="I8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>42</v>
@@ -1050,10 +1038,13 @@
       <c r="J9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>46</v>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -1073,7 +1064,7 @@
       <c r="I10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -1105,9 +1096,6 @@
       <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="N11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1134,8 +1122,8 @@
       <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>61</v>
+      <c r="G12" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>39</v>
@@ -1143,25 +1131,22 @@
       <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
@@ -1178,13 +1163,13 @@
       <c r="I13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -1207,33 +1192,36 @@
       <c r="I14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>50</v>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1262,10 +1250,10 @@
       <c r="I16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1297,20 +1285,17 @@
       <c r="I17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>42</v>
@@ -1344,9 +1329,6 @@
       <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1376,7 +1358,7 @@
       <c r="I19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>71</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -31,18 +31,18 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>Казаков Максим</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>430719</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>321540</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>371742</t>
   </si>
   <si>
@@ -205,6 +205,9 @@
     <t>678</t>
   </si>
   <si>
+    <t>2-</t>
+  </si>
+  <si>
     <t>777</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
   </si>
   <si>
     <t>3+</t>
-  </si>
-  <si>
-    <t>2-</t>
   </si>
   <si>
     <t>949</t>
@@ -739,16 +739,16 @@
         <v>10</v>
       </c>
       <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>7</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
       </c>
       <c r="O3">
         <v>14</v>
@@ -795,16 +795,16 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -857,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>42</v>
@@ -895,17 +895,17 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>50</v>
@@ -939,16 +939,16 @@
         <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>42</v>
@@ -957,10 +957,10 @@
         <v>42</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>47</v>
@@ -983,16 +983,16 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>42</v>
@@ -1001,10 +1001,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>42</v>
@@ -1023,15 +1023,15 @@
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -1058,7 +1058,7 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1082,21 +1082,21 @@
         <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -1117,16 +1117,16 @@
         <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>42</v>
@@ -1135,10 +1135,10 @@
         <v>44</v>
       </c>
       <c r="M12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>42</v>
@@ -1154,11 +1154,14 @@
       <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>43</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -1184,10 +1187,10 @@
         <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>46</v>
@@ -1207,19 +1210,19 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>42</v>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>43</v>
@@ -1236,16 +1239,16 @@
         <v>47</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>50</v>
@@ -1259,7 +1262,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>42</v>
@@ -1271,16 +1274,16 @@
         <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>42</v>
@@ -1306,7 +1309,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -1321,22 +1324,22 @@
         <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1346,20 +1349,20 @@
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -34,15 +34,18 @@
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -88,15 +88,18 @@
     <t>369588</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>328905</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
     <t>321540</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -181,10 +181,10 @@
     <t>147</t>
   </si>
   <si>
-    <t>7-</t>
-  </si>
-  <si>
-    <t>8-</t>
+    <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>9-</t>
   </si>
   <si>
     <t>322</t>
@@ -736,34 +736,34 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>11</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>13</v>
       </c>
       <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>14</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
       </c>
       <c r="N3">
         <v>7</v>
@@ -792,34 +792,34 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>42</v>
@@ -865,11 +865,11 @@
       <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>42</v>
@@ -898,22 +898,22 @@
         <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>46</v>
@@ -942,22 +942,22 @@
         <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>46</v>
+        <v>46</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>42</v>
@@ -986,22 +986,22 @@
         <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>42</v>
@@ -1020,20 +1020,20 @@
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>42</v>
@@ -1041,8 +1041,8 @@
       <c r="K9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>46</v>
+      <c r="L9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>41</v>
@@ -1061,7 +1061,7 @@
       <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -1085,10 +1085,10 @@
         <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>42</v>
@@ -1096,7 +1096,7 @@
       <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -1120,10 +1120,10 @@
         <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>46</v>
@@ -1131,11 +1131,11 @@
       <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>47</v>
@@ -1157,13 +1157,13 @@
       <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1184,22 +1184,22 @@
         <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>50</v>
@@ -1215,13 +1215,13 @@
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1242,18 +1242,18 @@
         <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1277,10 +1277,10 @@
         <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>42</v>
@@ -1288,10 +1288,10 @@
       <c r="I17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="J17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1321,10 +1321,10 @@
         <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>42</v>
@@ -1332,7 +1332,7 @@
       <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1352,13 +1352,13 @@
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="4" t="s">

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +131,117 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>1+, 16-</t>
+  </si>
+  <si>
+    <t>2+, 6-</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>3+, 2-</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>9-</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>3+, 1-</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>14-</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>949</t>
   </si>
 </sst>
 </file>
@@ -162,12 +273,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +305,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -611,52 +736,52 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -676,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -697,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -706,20 +831,557 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R4"/>
+  <autoFilter ref="A1:R19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -738,6 +1400,21 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="A19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$U$20</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="101">
   <si>
     <t>№</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Вахитова Екатерина</t>
+    <t>Екатерина Юрьевна</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
@@ -40,7 +40,7 @@
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
+    <t>Леонтьев Дмитрий</t>
   </si>
   <si>
     <t>Коляда Вадим</t>
@@ -73,7 +73,16 @@
     <t>Глушков Артём</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Грачёв Ромен</t>
+  </si>
+  <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
+    <t>Урцегов Артём</t>
+  </si>
+  <si>
+    <t>Acmp</t>
   </si>
   <si>
     <t>263178</t>
@@ -127,6 +136,57 @@
     <t>418688</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>slavashestakov2005</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
+    <t>Vadlm</t>
+  </si>
+  <si>
+    <t>Sasha_Medvedev</t>
+  </si>
+  <si>
+    <t>AndreBc</t>
+  </si>
+  <si>
+    <t>degterevvva</t>
+  </si>
+  <si>
+    <t>044s4</t>
+  </si>
+  <si>
+    <t>ABRAMOVICHH</t>
+  </si>
+  <si>
+    <t>art3m_glushkov</t>
+  </si>
+  <si>
+    <t>Romafka</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
+    <t>AbramovichLinkoln</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -136,112 +196,130 @@
     <t>1</t>
   </si>
   <si>
+    <t>3+, 5-</t>
+  </si>
+  <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
+    <t>8+, 7-</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>2+, 4-</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1+, 16-</t>
+  </si>
+  <si>
+    <t>2+, 6-</t>
+  </si>
+  <si>
+    <t>3+, 1-</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>3+, 3-</t>
+  </si>
+  <si>
+    <t>4+, 1-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>1+, 14-</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
     <t>2+, 1-</t>
   </si>
   <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>2+, 2-</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
-    <t>1+, 16-</t>
-  </si>
-  <si>
-    <t>2+, 6-</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>3+, 2-</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>1+, 8-</t>
-  </si>
-  <si>
-    <t>9-</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>1+, 7-</t>
-  </si>
-  <si>
-    <t>3+, 1-</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
     <t>678</t>
   </si>
   <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>14-</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
     <t>2-</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>14-</t>
-  </si>
-  <si>
-    <t>6-</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>949</t>
   </si>
 </sst>
 </file>
@@ -607,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -616,10 +694,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,714 +752,896 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
         <v>14</v>
       </c>
-      <c r="K3">
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>67</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>62</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
+      <c r="J13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>69</v>
+      <c r="K15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R19"/>
+  <autoFilter ref="A1:U20"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1400,21 +1660,44 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
-    <hyperlink ref="A19" r:id="rId32"/>
+    <hyperlink ref="S2" r:id="rId18"/>
+    <hyperlink ref="T2" r:id="rId19"/>
+    <hyperlink ref="U2" r:id="rId20"/>
+    <hyperlink ref="B3" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="D3" r:id="rId23"/>
+    <hyperlink ref="E3" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId25"/>
+    <hyperlink ref="G3" r:id="rId26"/>
+    <hyperlink ref="H3" r:id="rId27"/>
+    <hyperlink ref="I3" r:id="rId28"/>
+    <hyperlink ref="J3" r:id="rId29"/>
+    <hyperlink ref="K3" r:id="rId30"/>
+    <hyperlink ref="L3" r:id="rId31"/>
+    <hyperlink ref="M3" r:id="rId32"/>
+    <hyperlink ref="N3" r:id="rId33"/>
+    <hyperlink ref="O3" r:id="rId34"/>
+    <hyperlink ref="P3" r:id="rId35"/>
+    <hyperlink ref="Q3" r:id="rId36"/>
+    <hyperlink ref="R3" r:id="rId37"/>
+    <hyperlink ref="S3" r:id="rId38"/>
+    <hyperlink ref="T3" r:id="rId39"/>
+    <hyperlink ref="U3" r:id="rId40"/>
+    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A7" r:id="rId42"/>
+    <hyperlink ref="A8" r:id="rId43"/>
+    <hyperlink ref="A9" r:id="rId44"/>
+    <hyperlink ref="A10" r:id="rId45"/>
+    <hyperlink ref="A11" r:id="rId46"/>
+    <hyperlink ref="A12" r:id="rId47"/>
+    <hyperlink ref="A13" r:id="rId48"/>
+    <hyperlink ref="A14" r:id="rId49"/>
+    <hyperlink ref="A15" r:id="rId50"/>
+    <hyperlink ref="A16" r:id="rId51"/>
+    <hyperlink ref="A17" r:id="rId52"/>
+    <hyperlink ref="A18" r:id="rId53"/>
+    <hyperlink ref="A19" r:id="rId54"/>
+    <hyperlink ref="A20" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.09.29.xlsx
+++ b/groups/22-23/tasks_results/22.09.29.xlsx
@@ -202,7 +202,7 @@
     <t>2+, 3-</t>
   </si>
   <si>
-    <t>8+, 7-</t>
+    <t>9+, 7-</t>
   </si>
   <si>
     <t>1+</t>
